--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90033.42667520295</v>
+        <v>16179626.09833698</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90033.42667520295</v>
+        <v>16179626.09833698</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7206.278699124228</v>
+        <v>797181.2468993269</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7206.278699124228</v>
+        <v>797181.2468993269</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189228549.726547</v>
+        <v>48652476.56833009</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9464.743017694618</v>
+        <v>1123398.322731189</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18069.08657231988</v>
+        <v>2095947.961818668</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26649.03777124234</v>
+        <v>3068497.600906148</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35345.1601398543</v>
+        <v>4042740.94177365</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44084.22178281053</v>
+        <v>5016698.739586203</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52819.17237128855</v>
+        <v>5990656.537398757</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61558.0781911525</v>
+        <v>6964614.335211308</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70226.45580791522</v>
+        <v>7938572.133023858</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78999.42331830156</v>
+        <v>8869747.926942945</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87569.47807635229</v>
+        <v>9846881.337727988</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96027.83124416434</v>
+        <v>10819021.96020436</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104425.3684590889</v>
+        <v>11789786.09594112</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112782.7745597643</v>
+        <v>12760782.96379318</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121541.1055017635</v>
+        <v>13670208.49106148</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130769.3389522257</v>
+        <v>14527324.28644278</v>
       </c>
     </row>
   </sheetData>
